--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,67 +493,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DarioMarret</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dariomarret@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12456789</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Salinas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Santa Elena</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://maps.google.com/?q=-0.1081339,-78.4699519 </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>44903.96247685186</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
